--- a/src/main/resources/templates/MODELO PAPER JAVA.xlsx
+++ b/src/main/resources/templates/MODELO PAPER JAVA.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{289F131E-0D99-4BD5-B977-8565F5893AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edson\OneDrive\Desktop\Projetos\JAVA\api-automacao-livraria\src\main\resources\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505CF846-1832-4A6B-AD8B-C70995CC3328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prop. ACIV." sheetId="13" r:id="rId1"/>
@@ -98,7 +103,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -296,19 +301,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -349,10 +354,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Vírgula" xfId="3" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -365,6 +370,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2651761</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4823460</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D0296E-78E5-FA29-C56D-A747538B0582}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3169921" y="160020"/>
+          <a:ext cx="2171699" cy="662940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -654,23 +714,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:G66"/>
+  <dimension ref="A7:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="76" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:6" ht="19.5">
+    <row r="7" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
@@ -680,7 +740,7 @@
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -688,7 +748,7 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>1</v>
       </c>
@@ -698,7 +758,7 @@
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -706,7 +766,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>2</v>
       </c>
@@ -716,7 +776,7 @@
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>3</v>
       </c>
@@ -726,7 +786,7 @@
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>4</v>
       </c>
@@ -736,7 +796,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -744,7 +804,7 @@
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
     </row>
-    <row r="15" spans="1:6" ht="0.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:6" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -752,7 +812,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
     </row>
-    <row r="16" spans="1:6" ht="42" customHeight="1" thickBot="1">
+    <row r="16" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -772,7 +832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25">
+    <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>1</v>
       </c>
@@ -785,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25">
+    <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2</v>
       </c>
@@ -794,11 +854,11 @@
       <c r="D18" s="11"/>
       <c r="E18" s="5"/>
       <c r="F18" s="10">
-        <f t="shared" ref="F18:F58" si="0">D18*E18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.25">
+        <f t="shared" ref="F18:F66" si="0">D18*E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>3</v>
       </c>
@@ -811,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25">
+    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>4</v>
       </c>
@@ -824,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25">
+    <row r="21" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>5</v>
       </c>
@@ -837,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25">
+    <row r="22" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>6</v>
       </c>
@@ -850,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25">
+    <row r="23" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>7</v>
       </c>
@@ -863,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25">
+    <row r="24" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>8</v>
       </c>
@@ -876,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25">
+    <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>9</v>
       </c>
@@ -889,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25">
+    <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>10</v>
       </c>
@@ -902,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25">
+    <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>11</v>
       </c>
@@ -915,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25">
+    <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>12</v>
       </c>
@@ -928,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>13</v>
       </c>
@@ -941,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>14</v>
       </c>
@@ -954,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>15</v>
       </c>
@@ -967,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>16</v>
       </c>
@@ -980,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>17</v>
       </c>
@@ -993,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>18</v>
       </c>
@@ -1006,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>19</v>
       </c>
@@ -1019,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>20</v>
       </c>
@@ -1032,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.25">
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>21</v>
       </c>
@@ -1045,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25">
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>22</v>
       </c>
@@ -1058,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.25">
+    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>23</v>
       </c>
@@ -1071,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25">
+    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>24</v>
       </c>
@@ -1084,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25">
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>25</v>
       </c>
@@ -1097,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.25">
+    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>26</v>
       </c>
@@ -1110,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25">
+    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>27</v>
       </c>
@@ -1123,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25">
+    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>28</v>
       </c>
@@ -1136,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" thickBot="1">
+    <row r="45" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>29</v>
       </c>
@@ -1149,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" thickBot="1">
+    <row r="46" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>30</v>
       </c>
@@ -1162,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" thickBot="1">
+    <row r="47" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>31</v>
       </c>
@@ -1175,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" thickBot="1">
+    <row r="48" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>32</v>
       </c>
@@ -1188,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" thickBot="1">
+    <row r="49" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>33</v>
       </c>
@@ -1201,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" thickBot="1">
+    <row r="50" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>34</v>
       </c>
@@ -1214,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" thickBot="1">
+    <row r="51" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>35</v>
       </c>
@@ -1227,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14.25">
+    <row r="52" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>36</v>
       </c>
@@ -1240,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" thickBot="1">
+    <row r="53" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>37</v>
       </c>
@@ -1253,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" thickBot="1">
+    <row r="54" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>38</v>
       </c>
@@ -1266,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" thickBot="1">
+    <row r="55" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>39</v>
       </c>
@@ -1279,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" thickBot="1">
+    <row r="56" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>40</v>
       </c>
@@ -1292,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" thickBot="1">
+    <row r="57" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>41</v>
       </c>
@@ -1305,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" thickBot="1">
+    <row r="58" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>42</v>
       </c>
@@ -1318,85 +1378,189 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A59" s="15" t="s">
+    <row r="59" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>43</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>44</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>45</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>46</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>47</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>48</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>49</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>50</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="3">
-        <f>SUM(F17:F58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" ht="19.5">
-      <c r="A61" s="18" t="s">
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="3">
+        <f>SUM(F17:F66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-    </row>
-    <row r="62" spans="1:7" ht="19.5">
-      <c r="A62" s="19" t="s">
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+    </row>
+    <row r="70" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A70" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-    </row>
-    <row r="63" spans="1:7" ht="19.5">
-      <c r="A63" s="19" t="s">
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+    </row>
+    <row r="71" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A71" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-    </row>
-    <row r="64" spans="1:7" ht="19.5">
-      <c r="A64" s="19" t="s">
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+    </row>
+    <row r="72" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A72" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-    </row>
-    <row r="65" spans="1:6" ht="19.5">
-      <c r="A65" s="14" t="s">
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+    </row>
+    <row r="73" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A73" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-    </row>
-    <row r="66" spans="1:6" ht="19.5">
-      <c r="A66" s="14" t="s">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+    </row>
+    <row r="74" spans="1:7" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A74" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1408,13 +1572,13 @@
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="A71:G71"/>
+    <mergeCell ref="A72:G72"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.27559055118110237" top="0.18" bottom="1.03" header="1.08" footer="0.12"/>
@@ -1422,5 +1586,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;9PAPER CO. DORES EIRELI - EPPPRAÇA JOEL NASCIMENTO,118 - CENTRO – NOSSA SENHORA DAS DORES/SE – CEP: 49600-000CNPJ:12.381.584/0001-71 – INSCRIÇÃO ESTADUAL 27.128.068-9 TELEFAX: (79) 3265-2552</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>